--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4594886-D1EB-4E5C-AF66-56948EA25086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79198711-9F47-4A26-86DC-F5BBB394E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0D1323-7F63-4A7A-B69F-3A7C88ECD59A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="25770" windowHeight="11385" xr2:uid="{BC0D1323-7F63-4A7A-B69F-3A7C88ECD59A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,16 +589,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
